--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MaximeBeaulieu\ProgAvancée2D\TPFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MaximeBeaulieu\ProgAvancée2D\TP_Final\UnityTPFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -36,6 +36,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>06-07-2015</t>
+  </si>
+  <si>
+    <t>Camera and movement</t>
+  </si>
+  <si>
+    <t>07-07-2015</t>
+  </si>
+  <si>
+    <t>Camera and movement + grid</t>
+  </si>
+  <si>
+    <t>Animation and movement</t>
   </si>
 </sst>
 </file>
@@ -79,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -94,6 +109,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +417,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,14 +439,37 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -496,7 +537,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Animation and movement</t>
+  </si>
+  <si>
+    <t>08-07-2015</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +465,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>08-07-2015</t>
+  </si>
+  <si>
+    <t>09-07-2015</t>
+  </si>
+  <si>
+    <t>Level Design implementation</t>
+  </si>
+  <si>
+    <t>10-07-2015</t>
+  </si>
+  <si>
+    <t>Grid and raycast</t>
+  </si>
+  <si>
+    <t>13-07-2015</t>
+  </si>
+  <si>
+    <t>ClickGrid and Level reshaped</t>
+  </si>
+  <si>
+    <t>14-07-2015</t>
+  </si>
+  <si>
+    <t>Switches</t>
   </si>
 </sst>
 </file>
@@ -420,7 +444,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,16 +499,48 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
@@ -540,7 +596,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Switches</t>
+  </si>
+  <si>
+    <t>15-07-2015</t>
+  </si>
+  <si>
+    <t>TitleScreen + Music + SFX</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +549,15 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
@@ -596,7 +610,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>TitleScreen + Music + SFX</t>
+  </si>
+  <si>
+    <t>15/16-07-2015</t>
+  </si>
+  <si>
+    <t>EndScreen + polish + clean + proto done</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +566,15 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -610,7 +624,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>EndScreen + polish + clean + proto done</t>
+  </si>
+  <si>
+    <t>20-07-2015</t>
+  </si>
+  <si>
+    <t>Panel + hotfixes + musique</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +583,15 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
@@ -624,7 +638,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Panel + hotfixes + musique</t>
+  </si>
+  <si>
+    <t>21-07-2015</t>
+  </si>
+  <si>
+    <t>Loc + musique + sfx</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +600,15 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
@@ -638,7 +652,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviDuTemps.xlsx
+++ b/SuiviDuTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Loc + musique + sfx</t>
+  </si>
+  <si>
+    <t>22-07-2015</t>
+  </si>
+  <si>
+    <t>Hotfixes</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +617,15 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
@@ -652,7 +666,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D3:D25)</f>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
